--- a/old_database/crypto/s2cDNASample/s2cDNASample_0629_0618.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0629_0618.xlsx
@@ -43,7 +43,7 @@
     <t>09.27.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0629_0618</t>
   </si>
 </sst>
 </file>

--- a/old_database/crypto/s2cDNASample/s2cDNASample_0629_0618.xlsx
+++ b/old_database/crypto/s2cDNASample/s2cDNASample_0629_0618.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Retrofitted_0629_0618</t>
   </si>
   <si>
-    <t xml:space="preserve">SolexaPrep</t>
+    <t xml:space="preserve">SuperScriptIII</t>
   </si>
   <si>
     <t xml:space="preserve">10.04.11</t>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,12 +98,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -159,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,12 +166,8 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,7 +190,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="G3:G25 G1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,7 +221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -254,7 +244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -273,11 +263,11 @@
       <c r="F3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -296,11 +286,11 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -319,11 +309,11 @@
       <c r="F5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -342,11 +332,11 @@
       <c r="F6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -365,11 +355,11 @@
       <c r="F7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
@@ -388,11 +378,11 @@
       <c r="F8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
@@ -411,11 +401,11 @@
       <c r="F9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
@@ -434,11 +424,11 @@
       <c r="F10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
@@ -457,11 +447,11 @@
       <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
@@ -480,11 +470,11 @@
       <c r="F12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>7</v>
       </c>
@@ -503,11 +493,11 @@
       <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
@@ -526,11 +516,11 @@
       <c r="F14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
@@ -549,11 +539,11 @@
       <c r="F15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>7</v>
       </c>
@@ -572,11 +562,11 @@
       <c r="F16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>11</v>
       </c>
@@ -595,11 +585,11 @@
       <c r="F17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>7</v>
       </c>
@@ -618,11 +608,11 @@
       <c r="F18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
@@ -641,11 +631,11 @@
       <c r="F19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
@@ -664,11 +654,11 @@
       <c r="F20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
@@ -687,11 +677,11 @@
       <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
@@ -710,11 +700,11 @@
       <c r="F22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>11</v>
       </c>
@@ -733,11 +723,11 @@
       <c r="F23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>11</v>
       </c>
@@ -756,11 +746,11 @@
       <c r="F24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>10</v>
       </c>
@@ -779,7 +769,7 @@
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
